--- a/files/tEnergiasRenovaveis.xlsx
+++ b/files/tEnergiasRenovaveis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9af2e5637b8789c0/simccv_cimatec_v4/back/back_end_simcc/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F7DDD934-0899-4DC3-82DF-9B9CC774BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACA4810-5072-4261-9308-0915AC1B32BA}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{F7DDD934-0899-4DC3-82DF-9B9CC774BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E424FF4-2E38-4B29-9857-9E89474CC5DF}"/>
   <bookViews>
-    <workbookView xWindow="29745" yWindow="2475" windowWidth="21600" windowHeight="11295" xr2:uid="{183CA77D-9170-4653-826B-5BEA5E63D407}"/>
+    <workbookView xWindow="2955" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{183CA77D-9170-4653-826B-5BEA5E63D407}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>energia;solar</t>
   </si>
@@ -75,13 +75,124 @@
   </si>
   <si>
     <t>biocatalitico</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>Energias Renováveis</t>
+  </si>
+  <si>
+    <t>fablabs</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>sustainable;energy</t>
+  </si>
+  <si>
+    <t>biofuel</t>
+  </si>
+  <si>
+    <t>hydro;energy</t>
+  </si>
+  <si>
+    <t>Bbioenergy</t>
+  </si>
+  <si>
+    <t>Biocatalytic</t>
+  </si>
+  <si>
+    <t>Energias;Renováveis</t>
+  </si>
+  <si>
+    <t>Educational;Games</t>
+  </si>
+  <si>
+    <t>Jogos;Educacionais</t>
+  </si>
+  <si>
+    <t>Gamificação</t>
+  </si>
+  <si>
+    <t>Gamification</t>
+  </si>
+  <si>
+    <t>Educação 5.0</t>
+  </si>
+  <si>
+    <t>pensamento;computacional</t>
+  </si>
+  <si>
+    <t>Computational;thinking</t>
+  </si>
+  <si>
+    <t>robotica;educacional</t>
+  </si>
+  <si>
+    <t>Educational;Robotics</t>
+  </si>
+  <si>
+    <t>metodologias;ativas</t>
+  </si>
+  <si>
+    <t>aprendizagem;colaborativa</t>
+  </si>
+  <si>
+    <t>collaborative;learning</t>
+  </si>
+  <si>
+    <t>Active;Methodologies</t>
+  </si>
+  <si>
+    <t>3D;Printing</t>
+  </si>
+  <si>
+    <t>Impressão;3d</t>
+  </si>
+  <si>
+    <t>Cultura;maker</t>
+  </si>
+  <si>
+    <t>Maker;culture</t>
+  </si>
+  <si>
+    <t>narrativas;digitais</t>
+  </si>
+  <si>
+    <t>Digital;Storytelling</t>
+  </si>
+  <si>
+    <t>software;scratch</t>
+  </si>
+  <si>
+    <t>arduino</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>renewable;energy</t>
+  </si>
+  <si>
+    <t>solar;energy</t>
+  </si>
+  <si>
+    <t>geothermal;energy</t>
+  </si>
+  <si>
+    <t>tidal;energy</t>
+  </si>
+  <si>
+    <t>wind;energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +206,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF7A7A7A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,9 +240,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -137,10 +264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,83 +563,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F9726D-0D16-4D21-BB3C-70CCCC2F509B}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="3" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/tEnergiasRenovaveis.xlsx
+++ b/files/tEnergiasRenovaveis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="123" documentId="8_{F7DDD934-0899-4DC3-82DF-9B9CC774BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E424FF4-2E38-4B29-9857-9E89474CC5DF}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1305" windowWidth="21600" windowHeight="11295" xr2:uid="{183CA77D-9170-4653-826B-5BEA5E63D407}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{183CA77D-9170-4653-826B-5BEA5E63D407}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -240,12 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -264,6 +263,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,7 +569,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -821,7 +824,7 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
